--- a/Code/Results/Cases/Case_0_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.180041031988866</v>
+        <v>9.970763543028557</v>
       </c>
       <c r="D2">
-        <v>6.671484572884398</v>
+        <v>8.528491046257558</v>
       </c>
       <c r="E2">
-        <v>9.023658060808934</v>
+        <v>13.59532827535271</v>
       </c>
       <c r="F2">
-        <v>22.18769932443305</v>
+        <v>36.94469657144347</v>
       </c>
       <c r="G2">
-        <v>2.104282969599995</v>
+        <v>3.688423916727922</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.74129864737622</v>
+        <v>28.75196668293579</v>
       </c>
       <c r="J2">
-        <v>5.875046475871963</v>
+        <v>10.3854994726774</v>
       </c>
       <c r="K2">
-        <v>24.17820977822612</v>
+        <v>19.26589311391507</v>
       </c>
       <c r="L2">
-        <v>6.018004639599252</v>
+        <v>10.41771353776731</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.94238406169727</v>
+        <v>28.33118522513302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.805737129627668</v>
+        <v>9.901449391236348</v>
       </c>
       <c r="D3">
-        <v>6.379570279527703</v>
+        <v>8.472637652341685</v>
       </c>
       <c r="E3">
-        <v>8.80363227037601</v>
+        <v>13.58267831468798</v>
       </c>
       <c r="F3">
-        <v>22.20053547955497</v>
+        <v>37.12165219285041</v>
       </c>
       <c r="G3">
-        <v>2.11039679212709</v>
+        <v>3.690703559354318</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.83832520556802</v>
+        <v>28.89341137294942</v>
       </c>
       <c r="J3">
-        <v>5.889619904934281</v>
+        <v>10.40696812928699</v>
       </c>
       <c r="K3">
-        <v>22.5700708888827</v>
+        <v>18.66807038968713</v>
       </c>
       <c r="L3">
-        <v>6.000536411233196</v>
+        <v>10.43272694187783</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.17542433098002</v>
+        <v>28.49810661952498</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.569201374807512</v>
+        <v>9.859922379524233</v>
       </c>
       <c r="D4">
-        <v>6.194890507007</v>
+        <v>8.438888176939864</v>
       </c>
       <c r="E4">
-        <v>8.669409831711054</v>
+        <v>13.57668352587949</v>
       </c>
       <c r="F4">
-        <v>22.23760841418015</v>
+        <v>37.24012055144738</v>
       </c>
       <c r="G4">
-        <v>2.114258131169489</v>
+        <v>3.692176221356632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.91817416190856</v>
+        <v>28.98724341742677</v>
       </c>
       <c r="J4">
-        <v>5.900849671832827</v>
+        <v>10.42123783384365</v>
       </c>
       <c r="K4">
-        <v>21.52404270142068</v>
+        <v>18.29119183074582</v>
       </c>
       <c r="L4">
-        <v>5.99190060590154</v>
+        <v>10.44298308342464</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.33910711338903</v>
+        <v>28.60768619690392</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.471241960542146</v>
+        <v>9.843272382012442</v>
       </c>
       <c r="D5">
-        <v>6.118352284037792</v>
+        <v>8.425281244204822</v>
       </c>
       <c r="E5">
-        <v>8.614995245460655</v>
+        <v>13.57468859291661</v>
       </c>
       <c r="F5">
-        <v>22.25970932668407</v>
+        <v>37.29085823204711</v>
       </c>
       <c r="G5">
-        <v>2.115859466685375</v>
+        <v>3.692794746457167</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.95555275119111</v>
+        <v>29.02723321562139</v>
       </c>
       <c r="J5">
-        <v>5.905987861205668</v>
+        <v>10.42732678634423</v>
       </c>
       <c r="K5">
-        <v>21.08295590552867</v>
+        <v>18.13534225733512</v>
       </c>
       <c r="L5">
-        <v>5.988899666830854</v>
+        <v>10.44742392753713</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.4106848595659</v>
+        <v>28.65412057357878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.454884924509917</v>
+        <v>9.840524499956006</v>
       </c>
       <c r="D6">
-        <v>6.105568740752443</v>
+        <v>8.423030923338736</v>
       </c>
       <c r="E6">
-        <v>8.605978644048786</v>
+        <v>13.57438445743427</v>
       </c>
       <c r="F6">
-        <v>22.26379133688135</v>
+        <v>37.29943159006292</v>
       </c>
       <c r="G6">
-        <v>2.116127069297201</v>
+        <v>3.69289856533138</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.96204428802001</v>
+        <v>29.03397922555163</v>
       </c>
       <c r="J6">
-        <v>5.906874657712914</v>
+        <v>10.42835440822706</v>
       </c>
       <c r="K6">
-        <v>21.00881632617355</v>
+        <v>18.10933268645005</v>
       </c>
       <c r="L6">
-        <v>5.988432446739625</v>
+        <v>10.44817712496356</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.42285629492645</v>
+        <v>28.66193838212665</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.567886443325274</v>
+        <v>9.859696711157753</v>
       </c>
       <c r="D7">
-        <v>6.193863339926386</v>
+        <v>8.43870406481798</v>
       </c>
       <c r="E7">
-        <v>8.66867475138972</v>
+        <v>13.57665480468494</v>
       </c>
       <c r="F7">
-        <v>22.23787861999595</v>
+        <v>37.24079486383425</v>
       </c>
       <c r="G7">
-        <v>2.114279613720826</v>
+        <v>3.692184488409221</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.9186590049597</v>
+        <v>28.98777564316702</v>
       </c>
       <c r="J7">
-        <v>5.900916707145159</v>
+        <v>10.42131884194351</v>
       </c>
       <c r="K7">
-        <v>21.51815416668465</v>
+        <v>18.28909889872783</v>
       </c>
       <c r="L7">
-        <v>5.991858045640466</v>
+        <v>10.44304191533787</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.34005308017127</v>
+        <v>28.60830522445789</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.052439552858184</v>
+        <v>9.946657750836181</v>
       </c>
       <c r="D8">
-        <v>6.572011622740817</v>
+        <v>8.509125362261701</v>
       </c>
       <c r="E8">
-        <v>8.947648383038972</v>
+        <v>13.59060016904011</v>
       </c>
       <c r="F8">
-        <v>22.18585925148491</v>
+        <v>37.00366877871611</v>
       </c>
       <c r="G8">
-        <v>2.106369210885105</v>
+        <v>3.689194831842525</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.77038815581751</v>
+        <v>28.79928489795135</v>
       </c>
       <c r="J8">
-        <v>5.879590654187209</v>
+        <v>10.3926763086637</v>
       </c>
       <c r="K8">
-        <v>23.63584113044984</v>
+        <v>19.06191478586019</v>
       </c>
       <c r="L8">
-        <v>6.011543534711148</v>
+        <v>10.42267500037706</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.01827316455456</v>
+        <v>28.38726665045428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.945091871672973</v>
+        <v>10.12478736512774</v>
       </c>
       <c r="D9">
-        <v>7.267114594511336</v>
+        <v>8.651128174590188</v>
       </c>
       <c r="E9">
-        <v>9.499056995370742</v>
+        <v>13.6319010008117</v>
       </c>
       <c r="F9">
-        <v>22.33063535186061</v>
+        <v>36.61689846480569</v>
       </c>
       <c r="G9">
-        <v>2.091671082443704</v>
+        <v>3.683908269873577</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.6523102669519</v>
+        <v>28.48524419592491</v>
       </c>
       <c r="J9">
-        <v>5.856421667705566</v>
+        <v>10.34512321831443</v>
       </c>
       <c r="K9">
-        <v>27.32732453756306</v>
+        <v>20.49164425940205</v>
       </c>
       <c r="L9">
-        <v>6.067050670664064</v>
+        <v>10.39095247769416</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.56531236403702</v>
+        <v>28.01018810057037</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.561242723644755</v>
+        <v>10.25948042876953</v>
       </c>
       <c r="D10">
-        <v>7.745981113240788</v>
+        <v>8.757273652212133</v>
       </c>
       <c r="E10">
-        <v>9.903621241067224</v>
+        <v>13.67059602711632</v>
       </c>
       <c r="F10">
-        <v>22.60740683657782</v>
+        <v>36.3808934185132</v>
       </c>
       <c r="G10">
-        <v>2.081311752897353</v>
+        <v>3.680371679614317</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.68720879080769</v>
+        <v>28.28864113807828</v>
       </c>
       <c r="J10">
-        <v>5.851556482140335</v>
+        <v>10.31541485173778</v>
       </c>
       <c r="K10">
-        <v>29.76390581002961</v>
+        <v>21.48036828859746</v>
       </c>
       <c r="L10">
-        <v>6.118580925304407</v>
+        <v>10.37263098075792</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.36266594236247</v>
+        <v>27.76769643750288</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.832255204798923</v>
+        <v>10.32140781665694</v>
       </c>
       <c r="D11">
-        <v>7.956393643140866</v>
+        <v>8.805833472468303</v>
       </c>
       <c r="E11">
-        <v>10.08696121917541</v>
+        <v>13.68997563848075</v>
       </c>
       <c r="F11">
-        <v>22.7743028023718</v>
+        <v>36.28408286501337</v>
       </c>
       <c r="G11">
-        <v>2.076680825365115</v>
+        <v>3.678837430876387</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.73302867215257</v>
+        <v>28.20666161272857</v>
       </c>
       <c r="J11">
-        <v>5.852163445924767</v>
+        <v>10.30303027278246</v>
       </c>
       <c r="K11">
-        <v>30.81384286148973</v>
+        <v>21.91509313344502</v>
       </c>
       <c r="L11">
-        <v>6.144453284036429</v>
+        <v>10.36537318226339</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.30379901925593</v>
+        <v>27.66492340738206</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.933506918295548</v>
+        <v>10.34493705609971</v>
       </c>
       <c r="D12">
-        <v>8.034971914945169</v>
+        <v>8.824250680759555</v>
       </c>
       <c r="E12">
-        <v>10.15624487152955</v>
+        <v>13.69756620973748</v>
       </c>
       <c r="F12">
-        <v>22.84369926419421</v>
+        <v>36.24894825078015</v>
       </c>
       <c r="G12">
-        <v>2.074937732265424</v>
+        <v>3.678267111870657</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.7549724835457</v>
+        <v>28.17669465845869</v>
       </c>
       <c r="J12">
-        <v>5.852814533290469</v>
+        <v>10.29850264940616</v>
       </c>
       <c r="K12">
-        <v>31.2031290353114</v>
+        <v>22.07742797072271</v>
       </c>
       <c r="L12">
-        <v>6.15460791355618</v>
+        <v>10.36277921520776</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.28674008400429</v>
+        <v>27.62709364057483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.911762224593094</v>
+        <v>10.33986636115899</v>
       </c>
       <c r="D13">
-        <v>8.018098047261098</v>
+        <v>8.820283101378665</v>
       </c>
       <c r="E13">
-        <v>10.14133038622727</v>
+        <v>13.69592029912707</v>
       </c>
       <c r="F13">
-        <v>22.82847329483568</v>
+        <v>36.25644714060907</v>
       </c>
       <c r="G13">
-        <v>2.075312689826347</v>
+        <v>3.678389466688351</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.75003770775138</v>
+        <v>28.18310060687137</v>
       </c>
       <c r="J13">
-        <v>5.85265531676821</v>
+        <v>10.29947054782865</v>
       </c>
       <c r="K13">
-        <v>31.119656784759</v>
+        <v>22.04256972433711</v>
       </c>
       <c r="L13">
-        <v>6.152404913974013</v>
+        <v>10.3633310122714</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.29017412875371</v>
+        <v>27.63519249293137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.840612990908856</v>
+        <v>10.32334209334767</v>
       </c>
       <c r="D14">
-        <v>7.962880534774524</v>
+        <v>8.807348154270077</v>
       </c>
       <c r="E14">
-        <v>10.09266432165531</v>
+        <v>13.69059509158616</v>
       </c>
       <c r="F14">
-        <v>22.77988624039549</v>
+        <v>36.28116169896251</v>
       </c>
       <c r="G14">
-        <v>2.076537215997386</v>
+        <v>3.67879029690282</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.73474032946834</v>
+        <v>28.20417460332064</v>
       </c>
       <c r="J14">
-        <v>5.852208476236935</v>
+        <v>10.30265453469941</v>
       </c>
       <c r="K14">
-        <v>30.84603542964711</v>
+        <v>21.9284949824232</v>
       </c>
       <c r="L14">
-        <v>6.145281504828225</v>
+        <v>10.36515668306384</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.30228812084954</v>
+        <v>27.6617892967688</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.79685197242102</v>
+        <v>10.31323028826693</v>
       </c>
       <c r="D15">
-        <v>7.92891408930529</v>
+        <v>8.799428539959216</v>
       </c>
       <c r="E15">
-        <v>10.06283512975978</v>
+        <v>13.68736594694568</v>
       </c>
       <c r="F15">
-        <v>22.75094088239589</v>
+        <v>36.296498986325</v>
       </c>
       <c r="G15">
-        <v>2.077288609111414</v>
+        <v>3.679037204620083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.72597679878667</v>
+        <v>28.21722342092041</v>
       </c>
       <c r="J15">
-        <v>5.851990111015493</v>
+        <v>10.30462592518114</v>
       </c>
       <c r="K15">
-        <v>30.67735650474976</v>
+        <v>21.85831982132543</v>
       </c>
       <c r="L15">
-        <v>6.140964980048142</v>
+        <v>10.36629505406463</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.31040308719241</v>
+        <v>27.67822244454947</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.543340988066909</v>
+        <v>10.2554451834422</v>
       </c>
       <c r="D16">
-        <v>7.732077753027888</v>
+        <v>8.754104747258031</v>
       </c>
       <c r="E16">
-        <v>9.891621699803455</v>
+        <v>13.66936497916188</v>
       </c>
       <c r="F16">
-        <v>22.59735090023323</v>
+        <v>36.3874332209617</v>
       </c>
       <c r="G16">
-        <v>2.081615936649807</v>
+        <v>3.680473442126566</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.68484153064184</v>
+        <v>28.29414913366381</v>
       </c>
       <c r="J16">
-        <v>5.851574890139055</v>
+        <v>10.31624692141509</v>
       </c>
       <c r="K16">
-        <v>29.69412226647448</v>
+        <v>21.45164441571012</v>
       </c>
       <c r="L16">
-        <v>6.116939681389135</v>
+        <v>10.37312692525832</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.36722089429035</v>
+        <v>27.77456493317239</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.385411334498368</v>
+        <v>10.22015262194716</v>
       </c>
       <c r="D17">
-        <v>7.60939716006845</v>
+        <v>8.726362566813323</v>
       </c>
       <c r="E17">
-        <v>9.786376678664148</v>
+        <v>13.6587746126118</v>
       </c>
       <c r="F17">
-        <v>22.51384820797297</v>
+        <v>36.44592641726062</v>
       </c>
       <c r="G17">
-        <v>2.084290686762531</v>
+        <v>3.681373586020865</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.66748123576981</v>
+        <v>28.34325362956509</v>
       </c>
       <c r="J17">
-        <v>5.852053418708591</v>
+        <v>10.32366518701709</v>
       </c>
       <c r="K17">
-        <v>29.07603709379091</v>
+        <v>21.19821633636745</v>
       </c>
       <c r="L17">
-        <v>6.102829024547485</v>
+        <v>10.37759353424211</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.41091974955018</v>
+        <v>27.83560147833258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.293702784892233</v>
+        <v>10.1999158436266</v>
       </c>
       <c r="D18">
-        <v>7.538136910601118</v>
+        <v>8.710432404145926</v>
       </c>
       <c r="E18">
-        <v>9.725779004991823</v>
+        <v>13.6528508067439</v>
       </c>
       <c r="F18">
-        <v>22.46966105347822</v>
+        <v>36.48056260924903</v>
       </c>
       <c r="G18">
-        <v>2.085836887888223</v>
+        <v>3.681898346523312</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.66029759461206</v>
+        <v>28.37219876508735</v>
       </c>
       <c r="J18">
-        <v>5.852593119659453</v>
+        <v>10.32803834916893</v>
       </c>
       <c r="K18">
-        <v>28.71502014377266</v>
+        <v>21.05104093370409</v>
       </c>
       <c r="L18">
-        <v>6.094941290436671</v>
+        <v>10.38026398422747</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.43916273684285</v>
+        <v>27.87141730093873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.262503578958627</v>
+        <v>10.19307523509761</v>
       </c>
       <c r="D19">
-        <v>7.513890727592179</v>
+        <v>8.705043585646322</v>
       </c>
       <c r="E19">
-        <v>9.705252162300205</v>
+        <v>13.6508739814651</v>
       </c>
       <c r="F19">
-        <v>22.45535028726542</v>
+        <v>36.4924600239477</v>
       </c>
       <c r="G19">
-        <v>2.086361771943516</v>
+        <v>3.682077229036349</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.65833769559639</v>
+        <v>28.38211943528782</v>
       </c>
       <c r="J19">
-        <v>5.852820808584636</v>
+        <v>10.32953730629513</v>
       </c>
       <c r="K19">
-        <v>28.59183637117945</v>
+        <v>21.00097159250418</v>
       </c>
       <c r="L19">
-        <v>6.092309624434432</v>
+        <v>10.38118557680806</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.44924601302801</v>
+        <v>27.8836656045658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.402313753197175</v>
+        <v>10.22390321159538</v>
       </c>
       <c r="D20">
-        <v>7.622529181495877</v>
+        <v>8.729313113843389</v>
       </c>
       <c r="E20">
-        <v>9.797587093454805</v>
+        <v>13.65988466581008</v>
       </c>
       <c r="F20">
-        <v>22.52233739416627</v>
+        <v>36.4395969398693</v>
       </c>
       <c r="G20">
-        <v>2.084005160725028</v>
+        <v>3.681277037859502</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.66903722804531</v>
+        <v>28.33795373243152</v>
       </c>
       <c r="J20">
-        <v>5.851974996119816</v>
+        <v>10.3228644932717</v>
       </c>
       <c r="K20">
-        <v>29.14240289621655</v>
+        <v>21.22534107181615</v>
       </c>
       <c r="L20">
-        <v>6.104307440021695</v>
+        <v>10.37710756727454</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.40594305459642</v>
+        <v>27.82903060232542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.861548826491292</v>
+        <v>10.32819365965316</v>
       </c>
       <c r="D21">
-        <v>7.979129338549734</v>
+        <v>8.811146769361814</v>
       </c>
       <c r="E21">
-        <v>10.1069629235503</v>
+        <v>13.69215242644927</v>
       </c>
       <c r="F21">
-        <v>22.79398695053501</v>
+        <v>36.2738609671509</v>
       </c>
       <c r="G21">
-        <v>2.076177266926484</v>
+        <v>3.678672274267098</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.73910662978626</v>
+        <v>28.19795539489759</v>
       </c>
       <c r="J21">
-        <v>5.852328162733953</v>
+        <v>10.30171492257421</v>
       </c>
       <c r="K21">
-        <v>30.92662909959628</v>
+        <v>21.96206444402768</v>
       </c>
       <c r="L21">
-        <v>6.147364061953873</v>
+        <v>10.36461625231962</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.29858434608855</v>
+        <v>27.65394760419743</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.15366081609499</v>
+        <v>10.39680490185892</v>
       </c>
       <c r="D22">
-        <v>8.205764920390457</v>
+        <v>8.86479186943693</v>
       </c>
       <c r="E22">
-        <v>10.30830747578204</v>
+        <v>13.71470792047979</v>
       </c>
       <c r="F22">
-        <v>23.00777045322866</v>
+        <v>36.17443821334575</v>
       </c>
       <c r="G22">
-        <v>2.07112209169201</v>
+        <v>3.6770320651446</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.8118008010683</v>
+        <v>28.11273766299666</v>
       </c>
       <c r="J22">
-        <v>5.855022157121571</v>
+        <v>10.28883742277931</v>
       </c>
       <c r="K22">
-        <v>32.04438555606663</v>
+        <v>22.43018400832426</v>
       </c>
       <c r="L22">
-        <v>6.177590635200538</v>
+        <v>10.35735223002799</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.25913304623342</v>
+        <v>27.54586537681451</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.99849998151678</v>
+        <v>10.3601496146613</v>
       </c>
       <c r="D23">
-        <v>8.085401586123265</v>
+        <v>8.836149177323064</v>
       </c>
       <c r="E23">
-        <v>10.20093652706256</v>
+        <v>13.70253667246504</v>
       </c>
       <c r="F23">
-        <v>22.89025897149196</v>
+        <v>36.22668532240992</v>
       </c>
       <c r="G23">
-        <v>2.073814988719386</v>
+        <v>3.677901806395239</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.77044776450337</v>
+        <v>28.15764385181899</v>
       </c>
       <c r="J23">
-        <v>5.853353548008186</v>
+        <v>10.29562403202046</v>
       </c>
       <c r="K23">
-        <v>31.45220435423381</v>
+        <v>22.18160003976415</v>
       </c>
       <c r="L23">
-        <v>6.161264590680021</v>
+        <v>10.36114699162075</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27722937452795</v>
+        <v>27.60296892343705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.394675009307878</v>
+        <v>10.22220740257269</v>
       </c>
       <c r="D24">
-        <v>7.616594464411876</v>
+        <v>8.727979110975591</v>
       </c>
       <c r="E24">
-        <v>9.792519144770878</v>
+        <v>13.65938229736196</v>
       </c>
       <c r="F24">
-        <v>22.51848755884152</v>
+        <v>36.4424553583348</v>
       </c>
       <c r="G24">
-        <v>2.084134220631961</v>
+        <v>3.681320664677299</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.66832507363622</v>
+        <v>28.34034759121084</v>
       </c>
       <c r="J24">
-        <v>5.852009628017441</v>
+        <v>10.32322614953314</v>
       </c>
       <c r="K24">
-        <v>29.11241659056013</v>
+        <v>21.21308256765268</v>
       </c>
       <c r="L24">
-        <v>6.103638349170603</v>
+        <v>10.37732695351494</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.40818333379938</v>
+        <v>27.83199903697928</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.710300308360244</v>
+        <v>10.07586771057267</v>
       </c>
       <c r="D25">
-        <v>7.084448362878026</v>
+        <v>8.612352239008182</v>
       </c>
       <c r="E25">
-        <v>9.349768032937792</v>
+        <v>13.61924938456711</v>
       </c>
       <c r="F25">
-        <v>22.26294295184869</v>
+        <v>36.71310671572161</v>
       </c>
       <c r="G25">
-        <v>2.095565807669622</v>
+        <v>3.68527713746938</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.66408441800407</v>
+        <v>28.56422527912518</v>
       </c>
       <c r="J25">
-        <v>5.8606134453591</v>
+        <v>10.3570676803089</v>
       </c>
       <c r="K25">
-        <v>26.37749647527211</v>
+        <v>20.11508051259309</v>
       </c>
       <c r="L25">
-        <v>6.050178812044147</v>
+        <v>10.39865703894871</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.66664134194034</v>
+        <v>28.10614427447515</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.970763543028557</v>
+        <v>8.180041031988941</v>
       </c>
       <c r="D2">
-        <v>8.528491046257558</v>
+        <v>6.671484572884323</v>
       </c>
       <c r="E2">
-        <v>13.59532827535271</v>
+        <v>9.023658060808897</v>
       </c>
       <c r="F2">
-        <v>36.94469657144347</v>
+        <v>22.18769932443285</v>
       </c>
       <c r="G2">
-        <v>3.688423916727922</v>
+        <v>2.104282969599859</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.75196668293579</v>
+        <v>16.74129864737613</v>
       </c>
       <c r="J2">
-        <v>10.3854994726774</v>
+        <v>5.875046475871992</v>
       </c>
       <c r="K2">
-        <v>19.26589311391507</v>
+        <v>24.17820977822614</v>
       </c>
       <c r="L2">
-        <v>10.41771353776731</v>
+        <v>6.018004639599228</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.33118522513302</v>
+        <v>15.94238406169717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.901449391236348</v>
+        <v>7.805737129627739</v>
       </c>
       <c r="D3">
-        <v>8.472637652341685</v>
+        <v>6.37957027952771</v>
       </c>
       <c r="E3">
-        <v>13.58267831468798</v>
+        <v>8.803632270376054</v>
       </c>
       <c r="F3">
-        <v>37.12165219285041</v>
+        <v>22.20053547955499</v>
       </c>
       <c r="G3">
-        <v>3.690703559354318</v>
+        <v>2.110396792127089</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.89341137294942</v>
+        <v>16.83832520556815</v>
       </c>
       <c r="J3">
-        <v>10.40696812928699</v>
+        <v>5.889619904934341</v>
       </c>
       <c r="K3">
-        <v>18.66807038968713</v>
+        <v>22.5700708888827</v>
       </c>
       <c r="L3">
-        <v>10.43272694187783</v>
+        <v>6.000536411233139</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.49810661952498</v>
+        <v>16.17542433098009</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.859922379524233</v>
+        <v>7.569201374807621</v>
       </c>
       <c r="D4">
-        <v>8.438888176939864</v>
+        <v>6.194890507006985</v>
       </c>
       <c r="E4">
-        <v>13.57668352587949</v>
+        <v>8.669409831710965</v>
       </c>
       <c r="F4">
-        <v>37.24012055144738</v>
+        <v>22.23760841418019</v>
       </c>
       <c r="G4">
-        <v>3.692176221356632</v>
+        <v>2.114258131169624</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.98724341742677</v>
+        <v>16.91817416190865</v>
       </c>
       <c r="J4">
-        <v>10.42123783384365</v>
+        <v>5.900849671832739</v>
       </c>
       <c r="K4">
-        <v>18.29119183074582</v>
+        <v>21.52404270142068</v>
       </c>
       <c r="L4">
-        <v>10.44298308342464</v>
+        <v>5.99190060590143</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.60768619690392</v>
+        <v>16.33910711338908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.843272382012442</v>
+        <v>7.471241960542076</v>
       </c>
       <c r="D5">
-        <v>8.425281244204822</v>
+        <v>6.118352284037852</v>
       </c>
       <c r="E5">
-        <v>13.57468859291661</v>
+        <v>8.614995245460713</v>
       </c>
       <c r="F5">
-        <v>37.29085823204711</v>
+        <v>22.25970932668394</v>
       </c>
       <c r="G5">
-        <v>3.692794746457167</v>
+        <v>2.115859466685375</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.02723321562139</v>
+        <v>16.95555275119099</v>
       </c>
       <c r="J5">
-        <v>10.42732678634423</v>
+        <v>5.905987861205735</v>
       </c>
       <c r="K5">
-        <v>18.13534225733512</v>
+        <v>21.08295590552869</v>
       </c>
       <c r="L5">
-        <v>10.44742392753713</v>
+        <v>5.988899666830978</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.65412057357878</v>
+        <v>16.41068485956577</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.840524499956006</v>
+        <v>7.454884924510016</v>
       </c>
       <c r="D6">
-        <v>8.423030923338736</v>
+        <v>6.105568740752433</v>
       </c>
       <c r="E6">
-        <v>13.57438445743427</v>
+        <v>8.60597864404874</v>
       </c>
       <c r="F6">
-        <v>37.29943159006292</v>
+        <v>22.26379133688109</v>
       </c>
       <c r="G6">
-        <v>3.69289856533138</v>
+        <v>2.116127069297472</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.03397922555163</v>
+        <v>16.96204428801989</v>
       </c>
       <c r="J6">
-        <v>10.42835440822706</v>
+        <v>5.906874657712915</v>
       </c>
       <c r="K6">
-        <v>18.10933268645005</v>
+        <v>21.00881632617357</v>
       </c>
       <c r="L6">
-        <v>10.44817712496356</v>
+        <v>5.988432446739537</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.66193838212665</v>
+        <v>16.42285629492625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.859696711157753</v>
+        <v>7.567886443325081</v>
       </c>
       <c r="D7">
-        <v>8.43870406481798</v>
+        <v>6.193863339926417</v>
       </c>
       <c r="E7">
-        <v>13.57665480468494</v>
+        <v>8.66867475138968</v>
       </c>
       <c r="F7">
-        <v>37.24079486383425</v>
+        <v>22.23787861999562</v>
       </c>
       <c r="G7">
-        <v>3.692184488409221</v>
+        <v>2.114279613720692</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.98777564316702</v>
+        <v>16.91865900495934</v>
       </c>
       <c r="J7">
-        <v>10.42131884194351</v>
+        <v>5.900916707145097</v>
       </c>
       <c r="K7">
-        <v>18.28909889872783</v>
+        <v>21.51815416668466</v>
       </c>
       <c r="L7">
-        <v>10.44304191533787</v>
+        <v>5.991858045640464</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.60830522445789</v>
+        <v>16.34005308017094</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.946657750836181</v>
+        <v>8.052439552858152</v>
       </c>
       <c r="D8">
-        <v>8.509125362261701</v>
+        <v>6.572011622740784</v>
       </c>
       <c r="E8">
-        <v>13.59060016904011</v>
+        <v>8.947648383038933</v>
       </c>
       <c r="F8">
-        <v>37.00366877871611</v>
+        <v>22.18585925148476</v>
       </c>
       <c r="G8">
-        <v>3.689194831842525</v>
+        <v>2.106369210884973</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.79928489795135</v>
+        <v>16.77038815581735</v>
       </c>
       <c r="J8">
-        <v>10.3926763086637</v>
+        <v>5.879590654187182</v>
       </c>
       <c r="K8">
-        <v>19.06191478586019</v>
+        <v>23.63584113044988</v>
       </c>
       <c r="L8">
-        <v>10.42267500037706</v>
+        <v>6.011543534711121</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.38726665045428</v>
+        <v>16.01827316455442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.12478736512774</v>
+        <v>8.945091871673043</v>
       </c>
       <c r="D9">
-        <v>8.651128174590188</v>
+        <v>7.267114594511284</v>
       </c>
       <c r="E9">
-        <v>13.6319010008117</v>
+        <v>9.499056995370747</v>
       </c>
       <c r="F9">
-        <v>36.61689846480569</v>
+        <v>22.33063535186052</v>
       </c>
       <c r="G9">
-        <v>3.683908269873577</v>
+        <v>2.091671082443705</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.48524419592491</v>
+        <v>16.65231026695189</v>
       </c>
       <c r="J9">
-        <v>10.34512321831443</v>
+        <v>5.856421667705622</v>
       </c>
       <c r="K9">
-        <v>20.49164425940205</v>
+        <v>27.32732453756309</v>
       </c>
       <c r="L9">
-        <v>10.39095247769416</v>
+        <v>6.067050670664011</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.01018810057037</v>
+        <v>15.56531236403696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.25948042876953</v>
+        <v>9.561242723644764</v>
       </c>
       <c r="D10">
-        <v>8.757273652212133</v>
+        <v>7.745981113240756</v>
       </c>
       <c r="E10">
-        <v>13.67059602711632</v>
+        <v>9.903621241067146</v>
       </c>
       <c r="F10">
-        <v>36.3808934185132</v>
+        <v>22.60740683657765</v>
       </c>
       <c r="G10">
-        <v>3.680371679614317</v>
+        <v>2.081311752897352</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.28864113807828</v>
+        <v>16.68720879080757</v>
       </c>
       <c r="J10">
-        <v>10.31541485173778</v>
+        <v>5.851556482140292</v>
       </c>
       <c r="K10">
-        <v>21.48036828859746</v>
+        <v>29.76390581002961</v>
       </c>
       <c r="L10">
-        <v>10.37263098075792</v>
+        <v>6.118580925304308</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.76769643750288</v>
+        <v>15.36266594236234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.32140781665694</v>
+        <v>9.832255204798983</v>
       </c>
       <c r="D11">
-        <v>8.805833472468303</v>
+        <v>7.956393643140953</v>
       </c>
       <c r="E11">
-        <v>13.68997563848075</v>
+        <v>10.08696121917547</v>
       </c>
       <c r="F11">
-        <v>36.28408286501337</v>
+        <v>22.7743028023718</v>
       </c>
       <c r="G11">
-        <v>3.678837430876387</v>
+        <v>2.07668082536498</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.20666161272857</v>
+        <v>16.73302867215258</v>
       </c>
       <c r="J11">
-        <v>10.30303027278246</v>
+        <v>5.852163445924767</v>
       </c>
       <c r="K11">
-        <v>21.91509313344502</v>
+        <v>30.81384286148973</v>
       </c>
       <c r="L11">
-        <v>10.36537318226339</v>
+        <v>6.144453284036475</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.66492340738206</v>
+        <v>15.30379901925591</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.34493705609971</v>
+        <v>9.933506918295597</v>
       </c>
       <c r="D12">
-        <v>8.824250680759555</v>
+        <v>8.034971914945194</v>
       </c>
       <c r="E12">
-        <v>13.69756620973748</v>
+        <v>10.15624487152954</v>
       </c>
       <c r="F12">
-        <v>36.24894825078015</v>
+        <v>22.84369926419413</v>
       </c>
       <c r="G12">
-        <v>3.678267111870657</v>
+        <v>2.074937732265157</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.17669465845869</v>
+        <v>16.7549724835456</v>
       </c>
       <c r="J12">
-        <v>10.29850264940616</v>
+        <v>5.852814533290419</v>
       </c>
       <c r="K12">
-        <v>22.07742797072271</v>
+        <v>31.20312903531143</v>
       </c>
       <c r="L12">
-        <v>10.36277921520776</v>
+        <v>6.154607913556101</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.62709364057483</v>
+        <v>15.28674008400415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.33986636115899</v>
+        <v>9.911762224593158</v>
       </c>
       <c r="D13">
-        <v>8.820283101378665</v>
+        <v>8.018098047261073</v>
       </c>
       <c r="E13">
-        <v>13.69592029912707</v>
+        <v>10.14133038622733</v>
       </c>
       <c r="F13">
-        <v>36.25644714060907</v>
+        <v>22.82847329483557</v>
       </c>
       <c r="G13">
-        <v>3.678389466688351</v>
+        <v>2.075312689826213</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.18310060687137</v>
+        <v>16.75003770775131</v>
       </c>
       <c r="J13">
-        <v>10.29947054782865</v>
+        <v>5.852655316768272</v>
       </c>
       <c r="K13">
-        <v>22.04256972433711</v>
+        <v>31.11965678475905</v>
       </c>
       <c r="L13">
-        <v>10.3633310122714</v>
+        <v>6.152404913974043</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.63519249293137</v>
+        <v>15.29017412875359</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.32334209334767</v>
+        <v>9.840612990908873</v>
       </c>
       <c r="D14">
-        <v>8.807348154270077</v>
+        <v>7.962880534774539</v>
       </c>
       <c r="E14">
-        <v>13.69059509158616</v>
+        <v>10.09266432165533</v>
       </c>
       <c r="F14">
-        <v>36.28116169896251</v>
+        <v>22.77988624039535</v>
       </c>
       <c r="G14">
-        <v>3.67879029690282</v>
+        <v>2.076537215997118</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.20417460332064</v>
+        <v>16.7347403294682</v>
       </c>
       <c r="J14">
-        <v>10.30265453469941</v>
+        <v>5.852208476236987</v>
       </c>
       <c r="K14">
-        <v>21.9284949824232</v>
+        <v>30.84603542964717</v>
       </c>
       <c r="L14">
-        <v>10.36515668306384</v>
+        <v>6.145281504828247</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.6617892967688</v>
+        <v>15.30228812084937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.31323028826693</v>
+        <v>9.796851972421178</v>
       </c>
       <c r="D15">
-        <v>8.799428539959216</v>
+        <v>7.928914089305304</v>
       </c>
       <c r="E15">
-        <v>13.68736594694568</v>
+        <v>10.06283512975986</v>
       </c>
       <c r="F15">
-        <v>36.296498986325</v>
+        <v>22.75094088239604</v>
       </c>
       <c r="G15">
-        <v>3.679037204620083</v>
+        <v>2.077288609111412</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.21722342092041</v>
+        <v>16.72597679878683</v>
       </c>
       <c r="J15">
-        <v>10.30462592518114</v>
+        <v>5.851990111015563</v>
       </c>
       <c r="K15">
-        <v>21.85831982132543</v>
+        <v>30.67735650474971</v>
       </c>
       <c r="L15">
-        <v>10.36629505406463</v>
+        <v>6.140964980048166</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.67822244454947</v>
+        <v>15.31040308719255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.2554451834422</v>
+        <v>9.54334098806696</v>
       </c>
       <c r="D16">
-        <v>8.754104747258031</v>
+        <v>7.732077753027826</v>
       </c>
       <c r="E16">
-        <v>13.66936497916188</v>
+        <v>9.891621699803334</v>
       </c>
       <c r="F16">
-        <v>36.3874332209617</v>
+        <v>22.59735090023314</v>
       </c>
       <c r="G16">
-        <v>3.680473442126566</v>
+        <v>2.08161593664954</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.29414913366381</v>
+        <v>16.68484153064179</v>
       </c>
       <c r="J16">
-        <v>10.31624692141509</v>
+        <v>5.851574890138979</v>
       </c>
       <c r="K16">
-        <v>21.45164441571012</v>
+        <v>29.6941222664745</v>
       </c>
       <c r="L16">
-        <v>10.37312692525832</v>
+        <v>6.116939681389006</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.77456493317239</v>
+        <v>15.36722089429027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.22015262194716</v>
+        <v>9.38541133449837</v>
       </c>
       <c r="D17">
-        <v>8.726362566813323</v>
+        <v>7.609397160068437</v>
       </c>
       <c r="E17">
-        <v>13.6587746126118</v>
+        <v>9.786376678664217</v>
       </c>
       <c r="F17">
-        <v>36.44592641726062</v>
+        <v>22.51384820797291</v>
       </c>
       <c r="G17">
-        <v>3.681373586020865</v>
+        <v>2.084290686762399</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.34325362956509</v>
+        <v>16.66748123576979</v>
       </c>
       <c r="J17">
-        <v>10.32366518701709</v>
+        <v>5.852053418708673</v>
       </c>
       <c r="K17">
-        <v>21.19821633636745</v>
+        <v>29.0760370937909</v>
       </c>
       <c r="L17">
-        <v>10.37759353424211</v>
+        <v>6.102829024547541</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.83560147833258</v>
+        <v>15.41091974955012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.1999158436266</v>
+        <v>9.293702784892185</v>
       </c>
       <c r="D18">
-        <v>8.710432404145926</v>
+        <v>7.538136910601098</v>
       </c>
       <c r="E18">
-        <v>13.6528508067439</v>
+        <v>9.725779004991786</v>
       </c>
       <c r="F18">
-        <v>36.48056260924903</v>
+        <v>22.46966105347822</v>
       </c>
       <c r="G18">
-        <v>3.681898346523312</v>
+        <v>2.085836887888221</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.37219876508735</v>
+        <v>16.66029759461208</v>
       </c>
       <c r="J18">
-        <v>10.32803834916893</v>
+        <v>5.852593119659453</v>
       </c>
       <c r="K18">
-        <v>21.05104093370409</v>
+        <v>28.71502014377264</v>
       </c>
       <c r="L18">
-        <v>10.38026398422747</v>
+        <v>6.094941290436644</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.87141730093873</v>
+        <v>15.43916273684288</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.19307523509761</v>
+        <v>9.26250357895869</v>
       </c>
       <c r="D19">
-        <v>8.705043585646322</v>
+        <v>7.513890727592133</v>
       </c>
       <c r="E19">
-        <v>13.6508739814651</v>
+        <v>9.705252162300198</v>
       </c>
       <c r="F19">
-        <v>36.4924600239477</v>
+        <v>22.45535028726537</v>
       </c>
       <c r="G19">
-        <v>3.682077229036349</v>
+        <v>2.086361771943383</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.38211943528782</v>
+        <v>16.65833769559639</v>
       </c>
       <c r="J19">
-        <v>10.32953730629513</v>
+        <v>5.852820808584642</v>
       </c>
       <c r="K19">
-        <v>21.00097159250418</v>
+        <v>28.59183637117949</v>
       </c>
       <c r="L19">
-        <v>10.38118557680806</v>
+        <v>6.092309624434407</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.8836656045658</v>
+        <v>15.44924601302795</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.22390321159538</v>
+        <v>9.402313753197115</v>
       </c>
       <c r="D20">
-        <v>8.729313113843389</v>
+        <v>7.622529181495878</v>
       </c>
       <c r="E20">
-        <v>13.65988466581008</v>
+        <v>9.79758709345476</v>
       </c>
       <c r="F20">
-        <v>36.4395969398693</v>
+        <v>22.52233739416621</v>
       </c>
       <c r="G20">
-        <v>3.681277037859502</v>
+        <v>2.084005160724894</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.33795373243152</v>
+        <v>16.66903722804524</v>
       </c>
       <c r="J20">
-        <v>10.3228644932717</v>
+        <v>5.851974996119791</v>
       </c>
       <c r="K20">
-        <v>21.22534107181615</v>
+        <v>29.14240289621657</v>
       </c>
       <c r="L20">
-        <v>10.37710756727454</v>
+        <v>6.104307440021693</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.82903060232542</v>
+        <v>15.40594305459634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.32819365965316</v>
+        <v>9.861548826491285</v>
       </c>
       <c r="D21">
-        <v>8.811146769361814</v>
+        <v>7.97912933854972</v>
       </c>
       <c r="E21">
-        <v>13.69215242644927</v>
+        <v>10.10696292355043</v>
       </c>
       <c r="F21">
-        <v>36.2738609671509</v>
+        <v>22.79398695053514</v>
       </c>
       <c r="G21">
-        <v>3.678672274267098</v>
+        <v>2.076177266926618</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.19795539489759</v>
+        <v>16.73910662978632</v>
       </c>
       <c r="J21">
-        <v>10.30171492257421</v>
+        <v>5.852328162734021</v>
       </c>
       <c r="K21">
-        <v>21.96206444402768</v>
+        <v>30.92662909959627</v>
       </c>
       <c r="L21">
-        <v>10.36461625231962</v>
+        <v>6.147364061953993</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.65394760419743</v>
+        <v>15.29858434608865</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.39680490185892</v>
+        <v>10.15366081609499</v>
       </c>
       <c r="D22">
-        <v>8.86479186943693</v>
+        <v>8.205764920390497</v>
       </c>
       <c r="E22">
-        <v>13.71470792047979</v>
+        <v>10.30830747578207</v>
       </c>
       <c r="F22">
-        <v>36.17443821334575</v>
+        <v>23.00777045322855</v>
       </c>
       <c r="G22">
-        <v>3.6770320651446</v>
+        <v>2.071122091692142</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.11273766299666</v>
+        <v>16.81180080106821</v>
       </c>
       <c r="J22">
-        <v>10.28883742277931</v>
+        <v>5.855022157121593</v>
       </c>
       <c r="K22">
-        <v>22.43018400832426</v>
+        <v>32.04438555606666</v>
       </c>
       <c r="L22">
-        <v>10.35735223002799</v>
+        <v>6.177590635200557</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.54586537681451</v>
+        <v>15.25913304623328</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.3601496146613</v>
+        <v>9.998499981516753</v>
       </c>
       <c r="D23">
-        <v>8.836149177323064</v>
+        <v>8.085401586123265</v>
       </c>
       <c r="E23">
-        <v>13.70253667246504</v>
+        <v>10.20093652706259</v>
       </c>
       <c r="F23">
-        <v>36.22668532240992</v>
+        <v>22.89025897149193</v>
       </c>
       <c r="G23">
-        <v>3.677901806395239</v>
+        <v>2.073814988719652</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.15764385181899</v>
+        <v>16.77044776450333</v>
       </c>
       <c r="J23">
-        <v>10.29562403202046</v>
+        <v>5.853353548008206</v>
       </c>
       <c r="K23">
-        <v>22.18160003976415</v>
+        <v>31.45220435423382</v>
       </c>
       <c r="L23">
-        <v>10.36114699162075</v>
+        <v>6.161264590680063</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.60296892343705</v>
+        <v>15.27722937452792</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.22220740257269</v>
+        <v>9.394675009308013</v>
       </c>
       <c r="D24">
-        <v>8.727979110975591</v>
+        <v>7.616594464411966</v>
       </c>
       <c r="E24">
-        <v>13.65938229736196</v>
+        <v>9.792519144770889</v>
       </c>
       <c r="F24">
-        <v>36.4424553583348</v>
+        <v>22.51848755884157</v>
       </c>
       <c r="G24">
-        <v>3.681320664677299</v>
+        <v>2.084134220632364</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.34034759121084</v>
+        <v>16.66832507363625</v>
       </c>
       <c r="J24">
-        <v>10.32322614953314</v>
+        <v>5.852009628017391</v>
       </c>
       <c r="K24">
-        <v>21.21308256765268</v>
+        <v>29.11241659056014</v>
       </c>
       <c r="L24">
-        <v>10.37732695351494</v>
+        <v>6.103638349170583</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.83199903697928</v>
+        <v>15.40818333379937</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.07586771057267</v>
+        <v>8.71030030836026</v>
       </c>
       <c r="D25">
-        <v>8.612352239008182</v>
+        <v>7.084448362878026</v>
       </c>
       <c r="E25">
-        <v>13.61924938456711</v>
+        <v>9.34976803293784</v>
       </c>
       <c r="F25">
-        <v>36.71310671572161</v>
+        <v>22.26294295184865</v>
       </c>
       <c r="G25">
-        <v>3.68527713746938</v>
+        <v>2.095565807669892</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.56422527912518</v>
+        <v>16.66408441800407</v>
       </c>
       <c r="J25">
-        <v>10.3570676803089</v>
+        <v>5.860613445359132</v>
       </c>
       <c r="K25">
-        <v>20.11508051259309</v>
+        <v>26.37749647527211</v>
       </c>
       <c r="L25">
-        <v>10.39865703894871</v>
+        <v>6.050178812044166</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.10614427447515</v>
+        <v>15.66664134194028</v>
       </c>
     </row>
   </sheetData>
